--- a/characterization/trending_words/trending_keywords_year.xlsx
+++ b/characterization/trending_words/trending_keywords_year.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="78">
   <si>
     <t>car
 (20)</t>
@@ -45,7 +45,7 @@
   </si>
   <si>
     <t>trump
-(65)</t>
+(67)</t>
   </si>
   <si>
     <t>death
@@ -77,7 +77,7 @@
   </si>
   <si>
     <t>school
-(22)</t>
+(23)</t>
   </si>
   <si>
     <t>scam
@@ -172,42 +172,38 @@
 (38)</t>
   </si>
   <si>
+    <t>letter
+(9)</t>
+  </si>
+  <si>
+    <t>barack
+(8)</t>
+  </si>
+  <si>
+    <t>christmas
+(14)</t>
+  </si>
+  <si>
+    <t>scam
+(13)</t>
+  </si>
+  <si>
+    <t>trump
+(18)</t>
+  </si>
+  <si>
+    <t>woman
+(47)</t>
+  </si>
+  <si>
+    <t>people
+(37)</t>
+  </si>
+  <si>
     <t>state
 (13)</t>
   </si>
   <si>
-    <t>letter
-(9)</t>
-  </si>
-  <si>
-    <t>barack
-(8)</t>
-  </si>
-  <si>
-    <t>christmas
-(14)</t>
-  </si>
-  <si>
-    <t>scam
-(13)</t>
-  </si>
-  <si>
-    <t>trump
-(18)</t>
-  </si>
-  <si>
-    <t>woman
-(47)</t>
-  </si>
-  <si>
-    <t>people
-(37)</t>
-  </si>
-  <si>
-    <t>obama
-(13)</t>
-  </si>
-  <si>
     <t>obama
 (9)</t>
   </si>
@@ -296,7 +292,7 @@
 (32)</t>
   </si>
   <si>
-    <t>donald
+    <t>gun
 (11)</t>
   </si>
   <si>
@@ -328,7 +324,7 @@
 (30)</t>
   </si>
   <si>
-    <t>gun
+    <t>house
 (11)</t>
   </si>
 </sst>
@@ -745,19 +741,19 @@
         <v>32</v>
       </c>
       <c r="G2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -780,19 +776,19 @@
         <v>33</v>
       </c>
       <c r="G3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -815,19 +811,19 @@
         <v>34</v>
       </c>
       <c r="G4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I4" t="s">
         <v>17</v>
       </c>
       <c r="J4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -850,19 +846,19 @@
         <v>35</v>
       </c>
       <c r="G5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -885,19 +881,19 @@
         <v>36</v>
       </c>
       <c r="G6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -920,19 +916,19 @@
         <v>37</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -955,19 +951,19 @@
         <v>38</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -987,22 +983,22 @@
         <v>31</v>
       </c>
       <c r="F9" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
